--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="190" yWindow="100" windowWidth="17220" windowHeight="8210"/>
+    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -29,74 +29,83 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>National Renewable Energy Laboratory</t>
+  </si>
+  <si>
+    <t>Renewable Energy Futures Study: Volume 1</t>
+  </si>
+  <si>
+    <t>http://www.nrel.gov/docs/fy12osti/52409-1.pdf</t>
+  </si>
+  <si>
+    <t>Page 3-14, Figure 3-8</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Additional MW-miles</t>
+  </si>
+  <si>
+    <t>MW-miles</t>
+  </si>
+  <si>
+    <t>Annual cost (2010-2050)</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Cost per MW-mile</t>
+  </si>
+  <si>
+    <t>We assume that the currency figures in RE Futures are in real dollars</t>
+  </si>
+  <si>
+    <t>and the annual cost from 2010-2050 refers to a period of 40 years,</t>
+  </si>
+  <si>
+    <t>not 41 years (e.g. going from the end of 2010 to the end of 2050).</t>
+  </si>
+  <si>
+    <t>(value read from graph)</t>
+  </si>
+  <si>
     <t>Transmission Construction</t>
   </si>
   <si>
     <t>Note:</t>
   </si>
   <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Labour</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>Contingency</t>
-  </si>
-  <si>
-    <t>Escalation</t>
-  </si>
-  <si>
-    <t>Owner - PPS</t>
-  </si>
-  <si>
-    <t>Owner - FA</t>
-  </si>
-  <si>
-    <t>Owner - Land</t>
-  </si>
-  <si>
-    <t>Pre-PPS Cost</t>
-  </si>
-  <si>
-    <t>Regulatory Compliance</t>
-  </si>
-  <si>
-    <t>Supply Install</t>
-  </si>
-  <si>
-    <t>https://public.tableau.com/profile/transmissioncost#!/vizhome/LineUnitCost/Line</t>
-  </si>
-  <si>
-    <t>Total (2013 CAN $/km)</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>We adjust 2013 Canadian dollars to 2015 Canadian dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>Cost per Distance (CAN $2015/km)</t>
-  </si>
-  <si>
-    <t>Alberta Electric System Operator</t>
-  </si>
-  <si>
-    <t>LineUnitCost</t>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
+  </si>
+  <si>
+    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>2010 $</t>
+  </si>
+  <si>
+    <t>2012 $</t>
+  </si>
+  <si>
+    <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +125,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,24 +229,24 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,9 +254,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -545,191 +579,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>477593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1067499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1533646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>215594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>97796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
+        <f>122*10^6</f>
+        <v>122000000</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>19474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <f>6.5*10^9</f>
+        <v>6500000000</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>58836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <f>B7*(2050-2010)</f>
+        <v>260000000000</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>67294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>29946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>30259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>111985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B12)</f>
-        <v>3709922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
+      <c r="B9" s="14">
+        <f>B8/B6</f>
+        <v>2131.1475409836066</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B9*About!$A$12</f>
+        <v>2248.3606557377047</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -744,28 +768,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <f>Data!$B$14*About!$A$11</f>
-        <v>3821219.66</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="6">
+        <f>Data!B10</f>
+        <v>2248.3606557377047</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/eps-canada-1.4.3/InputData/elec/TCCpUCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FB9EC-098D-47C2-82FF-923B9AA82DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_E7049D8AAF947B6FB8817C9DACB0FB7CD6E92B9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3AB502-0442-4A25-A169-3CE73C79EC64}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -41,41 +42,92 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Alberta Electric System Operator</t>
+  </si>
+  <si>
+    <t>LineUnitCost</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/app/profile/transmissioncost/viz/LineUnitCost/Line</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Values are in 2016 CAD$</t>
+  </si>
+  <si>
+    <t>Value is a 5-year average from 2017-2021</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>L. Structures</t>
+  </si>
+  <si>
+    <t>L. Foundations</t>
+  </si>
+  <si>
+    <t>Commissioning</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>L.All_O</t>
+  </si>
+  <si>
+    <t>L.Labor</t>
+  </si>
+  <si>
+    <t>L.Material</t>
+  </si>
+  <si>
+    <t>LabourOther</t>
+  </si>
+  <si>
+    <t>Misc Material</t>
+  </si>
+  <si>
+    <t>ROW Prep</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Total (2016 CAN $/km)</t>
+  </si>
+  <si>
+    <t>KM to Miles</t>
+  </si>
+  <si>
+    <t>Total (2016$CAD/mile)</t>
+  </si>
+  <si>
+    <t>Cost per Distance (CAN $2016/mile)</t>
+  </si>
+  <si>
     <t>Transmission Construction</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity Distance (2012$/(circuit mile))</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>http://sites.utexas.edu/energyinstitute/files/2016/11/UTAustin_FCe_TransmissionCosts_2016.pdf</t>
-  </si>
-  <si>
-    <t>The University of Texas at Austin Energy Institute</t>
-  </si>
-  <si>
-    <t>Estimation of Transmission Costs for New Generation</t>
-  </si>
-  <si>
-    <t>Table 3</t>
-  </si>
-  <si>
-    <t>We adjust 2016 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -203,9 +261,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -228,55 +286,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161104</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>37869</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD2E4CF-B955-4B59-BEE8-2B8AF2EAB153}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5610225"/>
-          <a:ext cx="6571429" cy="1847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,102 +609,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>0.95661376543184151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{57B399CA-529B-41AA-B301-B002FF8CF722}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A13:B13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>110349</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>17274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>67722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>600195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>52757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>30646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>112018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>143769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(1.114,0.823,0.847)</f>
-        <v>0.92799999999999994</v>
+        <v>15128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>145790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>19563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <f>SUM(B2:B15)</f>
+        <v>1352850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.62137100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <f>B16/B18</f>
+        <v>2177201.7039739545</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -706,31 +848,315 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
-        <f>Data!B13*1000000*About!A11</f>
-        <v>887737.5743207488</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="5">
+        <f>Data!B20</f>
+        <v>2177201.7039739545</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1CF924-32FF-42A8-992F-1AE314686634}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9CE083-6688-4054-93F1-7E15F57A69BD}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B0ABF-00FF-4637-8665-A787BE55DA4F}"/>
 </file>
--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/eps-canada-1.4.3/InputData/elec/TCCpUCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_E7049D8AAF947B6FB8817C9DACB0FB7CD6E92B9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3AB502-0442-4A25-A169-3CE73C79EC64}"/>
   <bookViews>
-    <workbookView xWindow="190" yWindow="100" windowWidth="17220" windowHeight="8210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -29,74 +42,92 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Alberta Electric System Operator</t>
+  </si>
+  <si>
+    <t>LineUnitCost</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/app/profile/transmissioncost/viz/LineUnitCost/Line</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Values are in 2016 CAD$</t>
+  </si>
+  <si>
+    <t>Value is a 5-year average from 2017-2021</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>L. Structures</t>
+  </si>
+  <si>
+    <t>L. Foundations</t>
+  </si>
+  <si>
+    <t>Commissioning</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>L.All_O</t>
+  </si>
+  <si>
+    <t>L.Labor</t>
+  </si>
+  <si>
+    <t>L.Material</t>
+  </si>
+  <si>
+    <t>LabourOther</t>
+  </si>
+  <si>
+    <t>Misc Material</t>
+  </si>
+  <si>
+    <t>ROW Prep</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Total (2016 CAN $/km)</t>
+  </si>
+  <si>
+    <t>KM to Miles</t>
+  </si>
+  <si>
+    <t>Total (2016$CAD/mile)</t>
+  </si>
+  <si>
+    <t>Cost per Distance (CAN $2016/mile)</t>
+  </si>
+  <si>
     <t>Transmission Construction</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Labour</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>Contingency</t>
-  </si>
-  <si>
-    <t>Escalation</t>
-  </si>
-  <si>
-    <t>Owner - PPS</t>
-  </si>
-  <si>
-    <t>Owner - FA</t>
-  </si>
-  <si>
-    <t>Owner - Land</t>
-  </si>
-  <si>
-    <t>Pre-PPS Cost</t>
-  </si>
-  <si>
-    <t>Regulatory Compliance</t>
-  </si>
-  <si>
-    <t>Supply Install</t>
-  </si>
-  <si>
-    <t>https://public.tableau.com/profile/transmissioncost#!/vizhome/LineUnitCost/Line</t>
-  </si>
-  <si>
-    <t>Total (2013 CAN $/km)</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>We adjust 2013 Canadian dollars to 2015 Canadian dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>Cost per Distance (CAN $2015/km)</t>
-  </si>
-  <si>
-    <t>Alberta Electric System Operator</t>
-  </si>
-  <si>
-    <t>LineUnitCost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +254,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,19 +262,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -334,6 +364,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -369,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,231 +608,555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{57B399CA-529B-41AA-B301-B002FF8CF722}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>110349</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>17274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>67722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>600195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>52757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>30646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>112018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>143769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="B13">
+        <v>15128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+      <c r="B14">
+        <v>145790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>19563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <f>SUM(B2:B15)</f>
+        <v>1352850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.62137100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <f>B16/B18</f>
+        <v>2177201.7039739545</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>477593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1067499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1533646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>215594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>97796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>19474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>58836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>67294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>29946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>30259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>111985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B12)</f>
-        <v>3709922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <f>Data!$B$14*About!$A$11</f>
-        <v>3821219.66</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="5">
+        <f>Data!B20</f>
+        <v>2177201.7039739545</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1CF924-32FF-42A8-992F-1AE314686634}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9CE083-6688-4054-93F1-7E15F57A69BD}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B0ABF-00FF-4637-8665-A787BE55DA4F}"/>
 </file>
--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/eps-canada-1.4.3/InputData/elec/TCCpUCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325FEA3-F413-4A4D-BC54-CE03D437BF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_E7049D8AAF947B6FB8817C9DACB0FB7CD6E92B9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3AB502-0442-4A25-A169-3CE73C79EC64}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -41,47 +42,92 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>Alberta Electric System Operator</t>
+  </si>
+  <si>
+    <t>LineUnitCost</t>
+  </si>
+  <si>
+    <t>https://public.tableau.com/app/profile/transmissioncost/viz/LineUnitCost/Line</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Values are in 2016 CAD$</t>
+  </si>
+  <si>
+    <t>Value is a 5-year average from 2017-2021</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>L. Structures</t>
+  </si>
+  <si>
+    <t>L. Foundations</t>
+  </si>
+  <si>
+    <t>Commissioning</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>L.All_O</t>
+  </si>
+  <si>
+    <t>L.Labor</t>
+  </si>
+  <si>
+    <t>L.Material</t>
+  </si>
+  <si>
+    <t>LabourOther</t>
+  </si>
+  <si>
+    <t>Misc Material</t>
+  </si>
+  <si>
+    <t>ROW Prep</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Total (2016 CAN $/km)</t>
+  </si>
+  <si>
+    <t>KM to Miles</t>
+  </si>
+  <si>
+    <t>Total (2016$CAD/mile)</t>
+  </si>
+  <si>
+    <t>Cost per Distance (CAN $2016/mile)</t>
+  </si>
+  <si>
     <t>Transmission Construction</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity Distance (2012$/(circuit mile))</t>
-  </si>
-  <si>
-    <t>MW-miles</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>$ / MW-mile</t>
-  </si>
-  <si>
-    <t>Americans for a Clean Energy Grid and Grid Strategies</t>
-  </si>
-  <si>
-    <t>Transmission Projects Ready To Go: Plugging Into America's Untapped Renewable Resources</t>
-  </si>
-  <si>
-    <t>https://cleanenergygrid.org/wp-content/uploads/2019/04/Transmission-Projects-Ready-to-Go-Final.pdf</t>
-  </si>
-  <si>
-    <t>Pages 11-12</t>
-  </si>
-  <si>
-    <t>We adjust 2021 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,12 +175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -209,9 +261,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -557,115 +609,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.6328125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>0.84730412960844359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{57B399CA-529B-41AA-B301-B002FF8CF722}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <f>17*10^6</f>
-        <v>17000000</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <f>33*10^9</f>
-        <v>33000000000</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <f>A2/A1</f>
-        <v>1941.1764705882354</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>110349</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>17274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>11449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>67722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>600195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>52757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>30646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>15985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>112018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>143769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>15128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>145790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>19563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <f>SUM(B2:B15)</f>
+        <v>1352850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.62137100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <f>B16/B18</f>
+        <v>2177201.7039739545</v>
       </c>
     </row>
   </sheetData>
@@ -680,31 +848,315 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
-        <f>Data!A3*About!A11</f>
-        <v>1644.7668398281553</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="5">
+        <f>Data!B20</f>
+        <v>2177201.7039739545</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1CF924-32FF-42A8-992F-1AE314686634}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9CE083-6688-4054-93F1-7E15F57A69BD}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B0ABF-00FF-4637-8665-A787BE55DA4F}"/>
 </file>
--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26306"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/eps-canada-1.4.3/InputData/elec/TCCpUCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_E7049D8AAF947B6FB8817C9DACB0FB7CD6E92B9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3AB502-0442-4A25-A169-3CE73C79EC64}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_E7049D8AAF947B6FB8817C9DACB0FB7CD6E92B9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62953F3E-3967-4FF6-A68D-41662842250B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -54,7 +55,7 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>Values are in 2016 CAD$</t>
+    <t>Values for cost inputs are in 2016 CAD$ and are converted to 2012 $USD</t>
   </si>
   <si>
     <t>Value is a 5-year average from 2017-2021</t>
@@ -117,7 +118,13 @@
     <t>Total (2016$CAD/mile)</t>
   </si>
   <si>
-    <t>Cost per Distance (CAN $2016/mile)</t>
+    <t>2016 $CAD to 2012 $USD conversion</t>
+  </si>
+  <si>
+    <t>Total (2012$USD/mile)</t>
+  </si>
+  <si>
+    <t>Cost per Distance (USD$2012/mile)</t>
   </si>
   <si>
     <t>Transmission Construction</t>
@@ -612,7 +619,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -673,15 +680,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
@@ -832,8 +839,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <f>B16/B18</f>
-        <v>2177201.7039739545</v>
+        <f>B16*B18</f>
+        <v>840621.75734999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.72229090790676931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <f>B20*B22</f>
+        <v>607173.45232251543</v>
       </c>
     </row>
   </sheetData>
@@ -848,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,16 +884,16 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
-        <f>Data!B20</f>
-        <v>2177201.7039739545</v>
+        <f>Data!B24</f>
+        <v>607173.45232251543</v>
       </c>
     </row>
   </sheetData>
@@ -878,8 +902,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -903,6 +927,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -989,6 +1015,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1124,6 +1162,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -1136,27 +1183,21 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1CF924-32FF-42A8-992F-1AE314686634}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2ED55DB-2ADA-4181-A08B-E08D10A805C1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9CE083-6688-4054-93F1-7E15F57A69BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B0ABF-00FF-4637-8665-A787BE55DA4F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B0ABF-00FF-4637-8665-A787BE55DA4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9CE083-6688-4054-93F1-7E15F57A69BD}"/>
 </file>
--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26307"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/eps-canada-1.4.3/InputData/elec/TCCpUCD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_E7049D8AAF947B6FB8817C9DACB0FB7CD6E92B9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62953F3E-3967-4FF6-A68D-41662842250B}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_E7049D8AAF947B6FB8817C9DACB0FB7CD6E92B9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D168E8-E77E-41F7-B661-DED3FFF5C7C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -61,6 +61,21 @@
     <t>Value is a 5-year average from 2017-2021</t>
   </si>
   <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <t>Alberta Chambers of Commerce</t>
+  </si>
+  <si>
+    <t>2022 Report</t>
+  </si>
+  <si>
+    <t>MW-Miles example to use in calculations</t>
+  </si>
+  <si>
+    <t>https://www.abchamber.ca/wp-content/uploads/2022/02/Strengthening-Albertas-Electricity-Transmission-Intertie-Infrastructure.pdf</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
@@ -124,7 +139,41 @@
     <t>Total (2012$USD/mile)</t>
   </si>
   <si>
-    <t>Cost per Distance (USD$2012/mile)</t>
+    <t>Transmission line length (miles)</t>
+  </si>
+  <si>
+    <t>Transmission line voltage (kv)</t>
+  </si>
+  <si>
+    <t>Transmission line capacity (MW)</t>
+  </si>
+  <si>
+    <t>Transmission line MW-miles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: See Alberta Chambers of Commerce data source for values - Montana Alberta Transmission Line specs used as example</t>
+    </r>
+  </si>
+  <si>
+    <t>Cost (2012 $USD/MW-Mile)</t>
+  </si>
+  <si>
+    <t>Cost per capacity distance (USD$2012/MW-mile)</t>
   </si>
   <si>
     <t>Transmission Construction</t>
@@ -134,7 +183,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +233,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +330,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,6 +340,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -616,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,9 +741,33 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{57B399CA-529B-41AA-B301-B002FF8CF722}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{911465E3-39C4-4BBE-997F-7ED26303E749}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -680,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -695,15 +790,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>110349</v>
@@ -712,7 +807,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>17274</v>
@@ -720,7 +815,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>11449</v>
@@ -728,7 +823,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>67722</v>
@@ -736,7 +831,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>600195</v>
@@ -744,7 +839,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>52757</v>
@@ -752,7 +847,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>30646</v>
@@ -760,7 +855,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>15985</v>
@@ -768,7 +863,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>112018</v>
@@ -776,7 +871,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>10205</v>
@@ -784,7 +879,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>143769</v>
@@ -792,7 +887,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>15128</v>
@@ -800,7 +895,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>145790</v>
@@ -808,7 +903,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>19563</v>
@@ -816,48 +911,97 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6">
         <f>SUM(B2:B15)</f>
         <v>1352850</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0.62137100000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <f>B16*B18</f>
         <v>840621.75734999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>0.72229090790676931</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <f>B20*B22</f>
         <v>607173.45232251543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <f>344*B18</f>
+        <v>213.75162399999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>240</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <f>B26*B28</f>
+        <v>64125.487199999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="7">
+        <f>(B24*B26)/B29</f>
+        <v>2023.911507741718</v>
       </c>
     </row>
   </sheetData>
@@ -872,8 +1016,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,16 +1028,16 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5">
-        <f>Data!B24</f>
-        <v>607173.45232251543</v>
+        <f>Data!B32</f>
+        <v>2023.911507741718</v>
       </c>
     </row>
   </sheetData>
@@ -902,6 +1046,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -1161,43 +1334,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2ED55DB-2ADA-4181-A08B-E08D10A805C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B0ABF-00FF-4637-8665-A787BE55DA4F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76B0ABF-00FF-4637-8665-A787BE55DA4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9CE083-6688-4054-93F1-7E15F57A69BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C9CE083-6688-4054-93F1-7E15F57A69BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2ED55DB-2ADA-4181-A08B-E08D10A805C1}"/>
 </file>
--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1075,8 +1075,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -1102,6 +1102,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1202,6 +1203,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1343,5 +1349,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2ED55DB-2ADA-4181-A08B-E08D10A805C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CA0EDAA-87D4-45CB-A473-53CB9032C03A}"/>
 </file>